--- a/meta/9-5-2.xlsx
+++ b/meta/9-5-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>9.5: Активизировать научные исследования, наращивать технологический потенциал промышленных секторов во всех странах, особенно развивающихся странах, в том числе путем стимулирования к 2030 году инновационной деятельности и значительного увеличения числа работников в сфере НИОКР в расчете на 1 млн. человек, а также государственных и частных расходов на НИОКР</t>
   </si>
   <si>
-    <t>9.5.2: Количество исследователей (в эквиваленте полной занятости) на миллион жителей</t>
-  </si>
-  <si>
     <t>Национальный статистический комитет КР (Отдел социальной статистики)</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
   </si>
   <si>
     <t>(0312) 32 46 52</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t>Исследователи (в эквиваленте полной занятости) на миллион жителей являются прямым измерением числа работников, занимающихся исследованиями и разработками, на 1 миллион человек.</t>
@@ -154,17 +148,31 @@
     <t>Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io
 www.uis.unesco.org</t>
   </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>9.5.2 Количество исследователей (в эквиваленте полной занятости) на миллион жителей</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,25 +239,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -561,7 +573,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,8 +609,8 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
+      <c r="B4" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -612,7 +624,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -620,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -628,7 +640,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -636,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -644,7 +656,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -658,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="243" customHeight="1" x14ac:dyDescent="0.25">
@@ -666,7 +678,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -674,7 +686,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -688,7 +700,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -696,7 +708,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -710,7 +722,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -718,7 +730,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -726,7 +738,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -746,7 +758,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,7 +772,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
